--- a/CreateBaseDeck/ExcelUserData/UserDataPart3.xlsx
+++ b/CreateBaseDeck/ExcelUserData/UserDataPart3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remote\Desktop\Projects\TemoaHurricane_OEA\TEMOA_GIT\TemoaHurricane_V2\CreateBaseDeck\ExcelUserData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADCF7729-D569-4DFA-A894-EC3776B0F052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41593A91-CEB9-4F64-BEF9-12A231178ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>Group Name</t>
   </si>
@@ -91,7 +91,10 @@
     <t>notes</t>
   </si>
   <si>
-    <t>GW</t>
+    <t>GW- Assume no new pumped hydro is added above the already installed capacity</t>
+  </si>
+  <si>
+    <t>GW- Assume no new hydro is added above the already installed capacity</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>21</v>
@@ -545,7 +548,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>21</v>
@@ -559,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>21</v>
@@ -587,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>21</v>
@@ -601,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -615,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>21</v>
@@ -629,10 +632,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -643,10 +646,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -657,10 +660,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -671,10 +674,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,10 +688,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -699,10 +702,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -713,10 +716,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="1">
-        <v>100</v>
+        <v>2.0579999999999998</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
